--- a/q3.xlsx
+++ b/q3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\Project_github\MTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF6E69-EF31-4D45-90B6-6AECE65BF892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59938F14-B359-40CC-BE4E-52C28D1559A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="750" windowWidth="14595" windowHeight="11835" xr2:uid="{6799D93F-3187-45A4-B755-7CA16B80BB36}"/>
+    <workbookView xWindow="14205" yWindow="960" windowWidth="14595" windowHeight="11835" xr2:uid="{6799D93F-3187-45A4-B755-7CA16B80BB36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
